--- a/stock_predictor_ai/data/cleaned/UPST.xlsx
+++ b/stock_predictor_ai/data/cleaned/UPST.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1136"/>
+  <dimension ref="A1:F1137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23169,6 +23169,26 @@
         <v>1086206</v>
       </c>
     </row>
+    <row r="1137">
+      <c r="A1137" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B1137" t="n">
+        <v>77.44010162353516</v>
+      </c>
+      <c r="C1137" t="n">
+        <v>77.67910003662109</v>
+      </c>
+      <c r="D1137" t="n">
+        <v>76.01000213623047</v>
+      </c>
+      <c r="E1137" t="n">
+        <v>76.54270172119141</v>
+      </c>
+      <c r="F1137" t="n">
+        <v>564622</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UPST.xlsx
+++ b/stock_predictor_ai/data/cleaned/UPST.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1137"/>
+  <dimension ref="A1:F1138"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23189,6 +23189,26 @@
         <v>564622</v>
       </c>
     </row>
+    <row r="1138">
+      <c r="A1138" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B1138" t="n">
+        <v>74.12999725341797</v>
+      </c>
+      <c r="C1138" t="n">
+        <v>76.13999938964844</v>
+      </c>
+      <c r="D1138" t="n">
+        <v>73.28199768066406</v>
+      </c>
+      <c r="E1138" t="n">
+        <v>75.12999725341797</v>
+      </c>
+      <c r="F1138" t="n">
+        <v>3942000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UPST.xlsx
+++ b/stock_predictor_ai/data/cleaned/UPST.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1138"/>
+  <dimension ref="A1:F1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23209,6 +23209,26 @@
         <v>3942000</v>
       </c>
     </row>
+    <row r="1139">
+      <c r="A1139" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B1139" t="n">
+        <v>78.56999969482422</v>
+      </c>
+      <c r="C1139" t="n">
+        <v>79.86000061035156</v>
+      </c>
+      <c r="D1139" t="n">
+        <v>77.66059875488281</v>
+      </c>
+      <c r="E1139" t="n">
+        <v>79.08000183105469</v>
+      </c>
+      <c r="F1139" t="n">
+        <v>758682</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UPST.xlsx
+++ b/stock_predictor_ai/data/cleaned/UPST.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1139"/>
+  <dimension ref="A1:F1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23229,6 +23229,26 @@
         <v>758682</v>
       </c>
     </row>
+    <row r="1140">
+      <c r="A1140" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B1140" t="n">
+        <v>70.18340301513672</v>
+      </c>
+      <c r="C1140" t="n">
+        <v>72.84999847412109</v>
+      </c>
+      <c r="D1140" t="n">
+        <v>67.38999938964844</v>
+      </c>
+      <c r="E1140" t="n">
+        <v>69.08999633789062</v>
+      </c>
+      <c r="F1140" t="n">
+        <v>3316501</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/UPST.xlsx
+++ b/stock_predictor_ai/data/cleaned/UPST.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1140"/>
+  <dimension ref="A1:F1135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23149,106 +23151,6 @@
         <v>11275200</v>
       </c>
     </row>
-    <row r="1136">
-      <c r="A1136" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B1136" t="n">
-        <v>73.69000244140625</v>
-      </c>
-      <c r="C1136" t="n">
-        <v>74.37999725341797</v>
-      </c>
-      <c r="D1136" t="n">
-        <v>72.48000335693359</v>
-      </c>
-      <c r="E1136" t="n">
-        <v>72.5</v>
-      </c>
-      <c r="F1136" t="n">
-        <v>1086206</v>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B1137" t="n">
-        <v>77.44010162353516</v>
-      </c>
-      <c r="C1137" t="n">
-        <v>77.67910003662109</v>
-      </c>
-      <c r="D1137" t="n">
-        <v>76.01000213623047</v>
-      </c>
-      <c r="E1137" t="n">
-        <v>76.54270172119141</v>
-      </c>
-      <c r="F1137" t="n">
-        <v>564622</v>
-      </c>
-    </row>
-    <row r="1138">
-      <c r="A1138" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B1138" t="n">
-        <v>74.12999725341797</v>
-      </c>
-      <c r="C1138" t="n">
-        <v>76.13999938964844</v>
-      </c>
-      <c r="D1138" t="n">
-        <v>73.28199768066406</v>
-      </c>
-      <c r="E1138" t="n">
-        <v>75.12999725341797</v>
-      </c>
-      <c r="F1138" t="n">
-        <v>3942000</v>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B1139" t="n">
-        <v>78.56999969482422</v>
-      </c>
-      <c r="C1139" t="n">
-        <v>79.86000061035156</v>
-      </c>
-      <c r="D1139" t="n">
-        <v>77.66059875488281</v>
-      </c>
-      <c r="E1139" t="n">
-        <v>79.08000183105469</v>
-      </c>
-      <c r="F1139" t="n">
-        <v>758682</v>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B1140" t="n">
-        <v>70.18340301513672</v>
-      </c>
-      <c r="C1140" t="n">
-        <v>72.84999847412109</v>
-      </c>
-      <c r="D1140" t="n">
-        <v>67.38999938964844</v>
-      </c>
-      <c r="E1140" t="n">
-        <v>69.08999633789062</v>
-      </c>
-      <c r="F1140" t="n">
-        <v>3316501</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
